--- a/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
+++ b/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM\1_TestCases\TC01_Login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC01_Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E27B115-0D34-470F-A118-D8FA60379BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5C7410-4197-45AF-AA36-8BBFCA8A4E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>Title</t>
   </si>
@@ -157,6 +157,29 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Error message displayed: "Required"
+User remains on the login page.</t>
+  </si>
+  <si>
+    <t>Verify that SQL injection attempts in fields are not successful.</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>1.Fill username with global user username from TC01.
+2.Fil password field with the following string: ' or '1'='1'--</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Verify that "OR Payload" SQL injection attempts in fields are not successful.</t>
   </si>
 </sst>
 </file>
@@ -589,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I498"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +675,9 @@
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -673,9 +698,11 @@
       <c r="H4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -689,14 +716,16 @@
         <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
@@ -710,12 +739,14 @@
         <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -736,7 +767,9 @@
       <c r="H7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
@@ -757,7 +790,9 @@
       <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -778,7 +813,9 @@
       <c r="H9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
@@ -796,7 +833,12 @@
       <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
@@ -817,12 +859,35 @@
       <c r="H11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
+++ b/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC01_Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5C7410-4197-45AF-AA36-8BBFCA8A4E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DE29FB-7F0D-4129-8AB3-3C210B593CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginSecurity" sheetId="3" r:id="rId2"/>
+    <sheet name="LoginAccessibility" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Title</t>
   </si>
@@ -48,14 +50,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
     <t>Verify that a user can log in with valid credentials</t>
-  </si>
-  <si>
-    <t>Use global user: Username : Admin
-Password : admin123</t>
   </si>
   <si>
     <t>1. Go to https://opensource-demo.orangehrmlive.com/web/index.php/auth/login
@@ -63,9 +58,6 @@
 3.Click Login button.</t>
   </si>
   <si>
-    <t>TC02</t>
-  </si>
-  <si>
     <t>User is redirected to the dashboard page, and the Admin panel is displayed.</t>
   </si>
   <si>
@@ -83,9 +75,6 @@
 User remains on the login page.</t>
   </si>
   <si>
-    <t>TC03</t>
-  </si>
-  <si>
     <t>Verify that login fails when the username is left blank</t>
   </si>
   <si>
@@ -93,9 +82,6 @@
 2.Click Login button.</t>
   </si>
   <si>
-    <t>TC04</t>
-  </si>
-  <si>
     <t>Verify that login fails when the password is left blank</t>
   </si>
   <si>
@@ -103,13 +89,7 @@
 2. Click login button.</t>
   </si>
   <si>
-    <t>TC05</t>
-  </si>
-  <si>
     <t>Verify that login fail when username is correct but password is invalid</t>
-  </si>
-  <si>
-    <t>TC06</t>
   </si>
   <si>
     <t>Verify that login fail when password is correct but username is invalid</t>
@@ -123,9 +103,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>TC07</t>
-  </si>
-  <si>
     <t>Verify password is masked during login process.</t>
   </si>
   <si>
@@ -135,9 +112,6 @@
     <t>Manual Testing</t>
   </si>
   <si>
-    <t>TC08</t>
-  </si>
-  <si>
     <t>Verify "Forgot My Password" button redirects to password reset link.</t>
   </si>
   <si>
@@ -148,9 +122,6 @@
   </si>
   <si>
     <t>Password is hidden.</t>
-  </si>
-  <si>
-    <t>TC09</t>
   </si>
   <si>
     <t>Verify that login fail when username is correct and password contains aditional characters</t>
@@ -169,17 +140,141 @@
     <t>Verify that SQL injection attempts in fields are not successful.</t>
   </si>
   <si>
-    <t>TC10</t>
-  </si>
-  <si>
     <t>1.Fill username with global user username from TC01.
 2.Fil password field with the following string: ' or '1'='1'--</t>
   </si>
   <si>
-    <t>TC11</t>
-  </si>
-  <si>
     <t>Verify that "OR Payload" SQL injection attempts in fields are not successful.</t>
+  </si>
+  <si>
+    <t>Verify case sensitivity with valid login data.</t>
+  </si>
+  <si>
+    <t>1.Fill username with global username from TC01 but in uppercase.
+2.Fill password with global password from TC01.</t>
+  </si>
+  <si>
+    <t>Use global user: Username : adminuser
+Password : !Adminuser123</t>
+  </si>
+  <si>
+    <t>Verify logout redirects to login page.</t>
+  </si>
+  <si>
+    <t>1.Fill username and password with global user credentials from TC01.
+2.Press login button.
+3.Press logout button.</t>
+  </si>
+  <si>
+    <t>User is redirect to the login page.</t>
+  </si>
+  <si>
+    <t>Verify login flow with keyboard</t>
+  </si>
+  <si>
+    <t>1.Press "tab" and fill username with creds. from TC01.
+2.Press "tab" and fill password with pass. as above.
+3.Press "tab" and press "enter".</t>
+  </si>
+  <si>
+    <t>Focus moves in logical order      (username -&gt; password -&gt; login) and user is logged in.</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Verify visible focus indicator when tabbing</t>
+  </si>
+  <si>
+    <t>1.Press "tab" to move focus through elements.</t>
+  </si>
+  <si>
+    <t>Elements have a visible outline that indicates focus.</t>
+  </si>
+  <si>
+    <t>Scan with Axe Core for common accessibility problems.</t>
+  </si>
+  <si>
+    <t>1.Run the test.</t>
+  </si>
+  <si>
+    <t>No common accessibility problems are found.</t>
+  </si>
+  <si>
+    <t>1.Press CTRL+ MouseWheelScroll up/down.</t>
+  </si>
+  <si>
+    <t>Verify page can be zoomed in and out +/- 50% without breaking the content</t>
+  </si>
+  <si>
+    <t>Page can be zoomed in and out an +/- 50% amount.</t>
+  </si>
+  <si>
+    <t>LoginSecurity_TC1</t>
+  </si>
+  <si>
+    <t>LoginSecurity_TC2</t>
+  </si>
+  <si>
+    <t>Login_TC10</t>
+  </si>
+  <si>
+    <t>Login_TC11</t>
+  </si>
+  <si>
+    <t>Login_TC09</t>
+  </si>
+  <si>
+    <t>Login_TC08</t>
+  </si>
+  <si>
+    <t>Login_TC07</t>
+  </si>
+  <si>
+    <t>Login_TC06</t>
+  </si>
+  <si>
+    <t>Login_TC05</t>
+  </si>
+  <si>
+    <t>Login_TC04</t>
+  </si>
+  <si>
+    <t>Login_TC03</t>
+  </si>
+  <si>
+    <t>Login_TC02</t>
+  </si>
+  <si>
+    <t>Login_TC01</t>
+  </si>
+  <si>
+    <t>LoginAccessibility_TC01</t>
+  </si>
+  <si>
+    <t>LoginAccessibility_TC02</t>
+  </si>
+  <si>
+    <t>LoginAccessibility_TC03</t>
+  </si>
+  <si>
+    <t>LoginAccessibility_TC04</t>
+  </si>
+  <si>
+    <t>Login_TC12</t>
+  </si>
+  <si>
+    <t>Verify social media buttons link to correct page.</t>
+  </si>
+  <si>
+    <t>User is redirect to correct social media page.</t>
+  </si>
+  <si>
+    <t>1.Press each of the 4 social media buttons.
+- Linkedin: https://www.linkedin.com/company/orangehrm/
+- Facebook: https://www.facebook.com/OrangeHRM/
+- Twitter: https://x.com/orangehrm?lang=en
+- Youtube: https://www.youtube.com/c/OrangeHRMInc</t>
   </si>
 </sst>
 </file>
@@ -229,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -246,11 +341,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -317,6 +495,98 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -331,17 +601,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B2:I498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Title" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Title" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B2:I498" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A30CC88D-34C6-4549-9F95-256E87B9A556}" name="Test ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D2291B80-E052-4E74-8B2A-5348F0A9A3D3}" name="Title" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{FC5C0E58-90FA-4751-A365-F0E42870FF91}" name="Preconditions" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{50947D0F-3DB7-4C12-8D4C-04394E1E90D0}" name="Test Steps" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C23F293D-C3E7-4952-A142-93091D0BBA3E}" name="Expected Result" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{E4077C5A-BC87-41F6-8F95-FA84454DECA1}" name="Actual Result" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{04A9F52E-CEAC-42B0-9466-31539452F358}" name="Notes" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{57C8C03B-F3D8-466A-ABA1-EB9E303A0381}" name="Status" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B2:I498" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C6AD6E72-D619-4F7A-A1B4-F56CA301BF0F}" name="Test ID" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{24DDBA72-E28E-474C-B5E1-AE041F298912}" name="Title" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{A274BD55-FA63-4D64-A320-6DFA74009ED5}" name="Preconditions" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{D075414E-2C83-4F70-8A30-EC33A8A439EA}" name="Test Steps" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{1C6D04CC-10B8-42A6-BC86-F64F2E5B8658}" name="Expected Result" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{799D8859-E4C3-464E-84FE-5F0D5D814832}" name="Actual Result" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{BD31614B-51C2-43FA-806D-187A71AF37CD}" name="Notes" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{D97C39C9-9A52-4956-93D9-99A7906A6516}" name="Status" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -610,9 +914,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I498"/>
+  <dimension ref="A2:I498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -630,7 +934,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -650,253 +954,1891 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="3"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I227" s="3"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I269" s="3"/>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="3"/>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="3"/>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I285" s="3"/>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I286" s="3"/>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I288" s="3"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I289" s="3"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290" s="3"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I291" s="3"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="3"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294" s="3"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I295" s="3"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296" s="3"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297" s="3"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298" s="3"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299" s="3"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300" s="3"/>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I301" s="3"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I302" s="3"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I303" s="3"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I321" s="3"/>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I322" s="3"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I323" s="3"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I324" s="3"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I325" s="3"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I327" s="3"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I328" s="3"/>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I329" s="3"/>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I330" s="3"/>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I331" s="3"/>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I335" s="3"/>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I336" s="3"/>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I337" s="3"/>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I338" s="3"/>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I339" s="3"/>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I341" s="3"/>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I342" s="3"/>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I343" s="3"/>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I346" s="3"/>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I347" s="3"/>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I348" s="3"/>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I349" s="3"/>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I350" s="3"/>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I351" s="3"/>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I352" s="3"/>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I353" s="3"/>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I354" s="3"/>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355" s="3"/>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I356" s="3"/>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357" s="3"/>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I358" s="3"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="3"/>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I360" s="3"/>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361" s="3"/>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I362" s="3"/>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363" s="3"/>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364" s="3"/>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365" s="3"/>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I366" s="3"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367" s="3"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" s="3"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" s="3"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" s="3"/>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" s="3"/>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372" s="3"/>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373" s="3"/>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I374" s="3"/>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375" s="3"/>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I376" s="3"/>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377" s="3"/>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I378" s="3"/>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379" s="3"/>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I380" s="3"/>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="3"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382" s="3"/>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383" s="3"/>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I384" s="3"/>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385" s="3"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386" s="3"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" s="3"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" s="3"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" s="3"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" s="3"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" s="3"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392" s="3"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" s="3"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I394" s="3"/>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395" s="3"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I396" s="3"/>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I397" s="3"/>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I398" s="3"/>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I399" s="3"/>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I400" s="3"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I401" s="3"/>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I402" s="3"/>
+    </row>
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I403" s="3"/>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I404" s="3"/>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I405" s="3"/>
+    </row>
+    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I406" s="3"/>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I407" s="3"/>
+    </row>
+    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I408" s="3"/>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I409" s="3"/>
+    </row>
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I410" s="3"/>
+    </row>
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I411" s="3"/>
+    </row>
+    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I412" s="3"/>
+    </row>
+    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I413" s="3"/>
+    </row>
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I414" s="3"/>
+    </row>
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I415" s="3"/>
+    </row>
+    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I416" s="3"/>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I417" s="3"/>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I418" s="3"/>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I419" s="3"/>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I420" s="3"/>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I421" s="3"/>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I422" s="3"/>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I423" s="3"/>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I424" s="3"/>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I425" s="3"/>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I426" s="3"/>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I427" s="3"/>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I428" s="3"/>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I429" s="3"/>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I430" s="3"/>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I431" s="3"/>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I432" s="3"/>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I433" s="3"/>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I434" s="3"/>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I435" s="3"/>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I436" s="3"/>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I437" s="3"/>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I438" s="3"/>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I439" s="3"/>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I440" s="3"/>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I441" s="3"/>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I442" s="3"/>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I443" s="3"/>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I444" s="3"/>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I445" s="3"/>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I446" s="3"/>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I447" s="3"/>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I448" s="3"/>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I449" s="3"/>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I450" s="3"/>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I451" s="3"/>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I452" s="3"/>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I453" s="3"/>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I454" s="3"/>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I455" s="3"/>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I456" s="3"/>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I457" s="3"/>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I458" s="3"/>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I459" s="3"/>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I460" s="3"/>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I461" s="3"/>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I462" s="3"/>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I463" s="3"/>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I464" s="3"/>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I465" s="3"/>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I466" s="3"/>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I467" s="3"/>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I468" s="3"/>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I469" s="3"/>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I470" s="3"/>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I471" s="3"/>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I472" s="3"/>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I473" s="3"/>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I474" s="3"/>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I475" s="3"/>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I476" s="3"/>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I477" s="3"/>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I478" s="3"/>
+    </row>
+    <row r="479" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I479" s="3"/>
+    </row>
+    <row r="480" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I480" s="3"/>
+    </row>
+    <row r="481" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I481" s="3"/>
+    </row>
+    <row r="482" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I482" s="3"/>
+    </row>
+    <row r="483" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I483" s="3"/>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I484" s="3"/>
+    </row>
+    <row r="485" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I485" s="3"/>
+    </row>
+    <row r="486" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I486" s="3"/>
+    </row>
+    <row r="487" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I487" s="3"/>
+    </row>
+    <row r="488" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I488" s="3"/>
+    </row>
+    <row r="489" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I489" s="3"/>
+    </row>
+    <row r="490" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I490" s="3"/>
+    </row>
+    <row r="491" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I491" s="3"/>
+    </row>
+    <row r="492" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I492" s="3"/>
+    </row>
+    <row r="493" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I493" s="3"/>
+    </row>
+    <row r="494" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I494" s="3"/>
+    </row>
+    <row r="495" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I495" s="3"/>
+    </row>
+    <row r="496" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I496" s="3"/>
+    </row>
+    <row r="497" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I497" s="3"/>
+    </row>
+    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I498" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H1 I2:I11 H499:H1048576 I14:I498">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I11 I14:I498" xr:uid="{8705CB75-3265-4505-B20A-B47F34467CE5}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E1303-6B42-4513-AE24-731061DAA27B}">
+  <dimension ref="A2:I498"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="43" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
@@ -2346,7 +4288,1645 @@
       <c r="I498" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="H1 I2 H499:H1048576 I5:I498">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I4">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I498" xr:uid="{A9E71AD3-4EC7-4DA8-BF18-85629F4AA09D}">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006AF6B-5FD9-438F-BBCE-C610C3551B37}">
+  <dimension ref="A2:I498"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I221" s="3"/>
+    </row>
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I224" s="3"/>
+    </row>
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I225" s="3"/>
+    </row>
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I226" s="3"/>
+    </row>
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I227" s="3"/>
+    </row>
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I228" s="3"/>
+    </row>
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I229" s="3"/>
+    </row>
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I230" s="3"/>
+    </row>
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I231" s="3"/>
+    </row>
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I232" s="3"/>
+    </row>
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I233" s="3"/>
+    </row>
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I234" s="3"/>
+    </row>
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I235" s="3"/>
+    </row>
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I236" s="3"/>
+    </row>
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I237" s="3"/>
+    </row>
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I238" s="3"/>
+    </row>
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I239" s="3"/>
+    </row>
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I240" s="3"/>
+    </row>
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I242" s="3"/>
+    </row>
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I243" s="3"/>
+    </row>
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I244" s="3"/>
+    </row>
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I245" s="3"/>
+    </row>
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I269" s="3"/>
+    </row>
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I276" s="3"/>
+    </row>
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I277" s="3"/>
+    </row>
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I278" s="3"/>
+    </row>
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="3"/>
+    </row>
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="3"/>
+    </row>
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I281" s="3"/>
+    </row>
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I282" s="3"/>
+    </row>
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I283" s="3"/>
+    </row>
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I284" s="3"/>
+    </row>
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I285" s="3"/>
+    </row>
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I286" s="3"/>
+    </row>
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I287" s="3"/>
+    </row>
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I288" s="3"/>
+    </row>
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I289" s="3"/>
+    </row>
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I290" s="3"/>
+    </row>
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I291" s="3"/>
+    </row>
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I292" s="3"/>
+    </row>
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I293" s="3"/>
+    </row>
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I294" s="3"/>
+    </row>
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I295" s="3"/>
+    </row>
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I296" s="3"/>
+    </row>
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I297" s="3"/>
+    </row>
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I298" s="3"/>
+    </row>
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I299" s="3"/>
+    </row>
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I300" s="3"/>
+    </row>
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I301" s="3"/>
+    </row>
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I302" s="3"/>
+    </row>
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I303" s="3"/>
+    </row>
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I304" s="3"/>
+    </row>
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I305" s="3"/>
+    </row>
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I306" s="3"/>
+    </row>
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I307" s="3"/>
+    </row>
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I308" s="3"/>
+    </row>
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I309" s="3"/>
+    </row>
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I310" s="3"/>
+    </row>
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I311" s="3"/>
+    </row>
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I312" s="3"/>
+    </row>
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I313" s="3"/>
+    </row>
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I314" s="3"/>
+    </row>
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I315" s="3"/>
+    </row>
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I316" s="3"/>
+    </row>
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I317" s="3"/>
+    </row>
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I318" s="3"/>
+    </row>
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I319" s="3"/>
+    </row>
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I320" s="3"/>
+    </row>
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I321" s="3"/>
+    </row>
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I322" s="3"/>
+    </row>
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I323" s="3"/>
+    </row>
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I324" s="3"/>
+    </row>
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I325" s="3"/>
+    </row>
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I326" s="3"/>
+    </row>
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I327" s="3"/>
+    </row>
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I328" s="3"/>
+    </row>
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I329" s="3"/>
+    </row>
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I330" s="3"/>
+    </row>
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I331" s="3"/>
+    </row>
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I332" s="3"/>
+    </row>
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I333" s="3"/>
+    </row>
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I334" s="3"/>
+    </row>
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I335" s="3"/>
+    </row>
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I336" s="3"/>
+    </row>
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I337" s="3"/>
+    </row>
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I338" s="3"/>
+    </row>
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I339" s="3"/>
+    </row>
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I341" s="3"/>
+    </row>
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I342" s="3"/>
+    </row>
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I343" s="3"/>
+    </row>
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I344" s="3"/>
+    </row>
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I345" s="3"/>
+    </row>
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I346" s="3"/>
+    </row>
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I347" s="3"/>
+    </row>
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I348" s="3"/>
+    </row>
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I349" s="3"/>
+    </row>
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I350" s="3"/>
+    </row>
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I351" s="3"/>
+    </row>
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I352" s="3"/>
+    </row>
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I353" s="3"/>
+    </row>
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I354" s="3"/>
+    </row>
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I355" s="3"/>
+    </row>
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I356" s="3"/>
+    </row>
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I357" s="3"/>
+    </row>
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I358" s="3"/>
+    </row>
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I359" s="3"/>
+    </row>
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I360" s="3"/>
+    </row>
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I361" s="3"/>
+    </row>
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I362" s="3"/>
+    </row>
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I363" s="3"/>
+    </row>
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I364" s="3"/>
+    </row>
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I365" s="3"/>
+    </row>
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I366" s="3"/>
+    </row>
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I367" s="3"/>
+    </row>
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I368" s="3"/>
+    </row>
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I369" s="3"/>
+    </row>
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I370" s="3"/>
+    </row>
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I371" s="3"/>
+    </row>
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I372" s="3"/>
+    </row>
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I373" s="3"/>
+    </row>
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I374" s="3"/>
+    </row>
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I375" s="3"/>
+    </row>
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I376" s="3"/>
+    </row>
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I377" s="3"/>
+    </row>
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I378" s="3"/>
+    </row>
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I379" s="3"/>
+    </row>
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I380" s="3"/>
+    </row>
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I381" s="3"/>
+    </row>
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I382" s="3"/>
+    </row>
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I383" s="3"/>
+    </row>
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I384" s="3"/>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385" s="3"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386" s="3"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" s="3"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" s="3"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" s="3"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" s="3"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" s="3"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392" s="3"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" s="3"/>
+    </row>
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I394" s="3"/>
+    </row>
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I395" s="3"/>
+    </row>
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I396" s="3"/>
+    </row>
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I397" s="3"/>
+    </row>
+    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I398" s="3"/>
+    </row>
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I399" s="3"/>
+    </row>
+    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I400" s="3"/>
+    </row>
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I401" s="3"/>
+    </row>
+    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I402" s="3"/>
+    </row>
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I403" s="3"/>
+    </row>
+    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I404" s="3"/>
+    </row>
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I405" s="3"/>
+    </row>
+    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I406" s="3"/>
+    </row>
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I407" s="3"/>
+    </row>
+    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I408" s="3"/>
+    </row>
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I409" s="3"/>
+    </row>
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I410" s="3"/>
+    </row>
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I411" s="3"/>
+    </row>
+    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I412" s="3"/>
+    </row>
+    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I413" s="3"/>
+    </row>
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I414" s="3"/>
+    </row>
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I415" s="3"/>
+    </row>
+    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I416" s="3"/>
+    </row>
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I417" s="3"/>
+    </row>
+    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I418" s="3"/>
+    </row>
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I419" s="3"/>
+    </row>
+    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I420" s="3"/>
+    </row>
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I421" s="3"/>
+    </row>
+    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I422" s="3"/>
+    </row>
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I423" s="3"/>
+    </row>
+    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I424" s="3"/>
+    </row>
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I425" s="3"/>
+    </row>
+    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I426" s="3"/>
+    </row>
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I427" s="3"/>
+    </row>
+    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I428" s="3"/>
+    </row>
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I429" s="3"/>
+    </row>
+    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I430" s="3"/>
+    </row>
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I431" s="3"/>
+    </row>
+    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I432" s="3"/>
+    </row>
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I433" s="3"/>
+    </row>
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I434" s="3"/>
+    </row>
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I435" s="3"/>
+    </row>
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I436" s="3"/>
+    </row>
+    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I437" s="3"/>
+    </row>
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I438" s="3"/>
+    </row>
+    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I439" s="3"/>
+    </row>
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I440" s="3"/>
+    </row>
+    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I441" s="3"/>
+    </row>
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I442" s="3"/>
+    </row>
+    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I443" s="3"/>
+    </row>
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I444" s="3"/>
+    </row>
+    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I445" s="3"/>
+    </row>
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I446" s="3"/>
+    </row>
+    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I447" s="3"/>
+    </row>
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I448" s="3"/>
+    </row>
+    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I449" s="3"/>
+    </row>
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I450" s="3"/>
+    </row>
+    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I451" s="3"/>
+    </row>
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I452" s="3"/>
+    </row>
+    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I453" s="3"/>
+    </row>
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I454" s="3"/>
+    </row>
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I455" s="3"/>
+    </row>
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I456" s="3"/>
+    </row>
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I457" s="3"/>
+    </row>
+    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I458" s="3"/>
+    </row>
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I459" s="3"/>
+    </row>
+    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I460" s="3"/>
+    </row>
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I461" s="3"/>
+    </row>
+    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I462" s="3"/>
+    </row>
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I463" s="3"/>
+    </row>
+    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I464" s="3"/>
+    </row>
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I465" s="3"/>
+    </row>
+    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I466" s="3"/>
+    </row>
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I467" s="3"/>
+    </row>
+    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I468" s="3"/>
+    </row>
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I469" s="3"/>
+    </row>
+    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I470" s="3"/>
+    </row>
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I471" s="3"/>
+    </row>
+    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I472" s="3"/>
+    </row>
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I473" s="3"/>
+    </row>
+    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I474" s="3"/>
+    </row>
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I475" s="3"/>
+    </row>
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I476" s="3"/>
+    </row>
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I477" s="3"/>
+    </row>
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I478" s="3"/>
+    </row>
+    <row r="479" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I479" s="3"/>
+    </row>
+    <row r="480" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I480" s="3"/>
+    </row>
+    <row r="481" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I481" s="3"/>
+    </row>
+    <row r="482" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I482" s="3"/>
+    </row>
+    <row r="483" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I483" s="3"/>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I484" s="3"/>
+    </row>
+    <row r="485" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I485" s="3"/>
+    </row>
+    <row r="486" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I486" s="3"/>
+    </row>
+    <row r="487" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I487" s="3"/>
+    </row>
+    <row r="488" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I488" s="3"/>
+    </row>
+    <row r="489" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I489" s="3"/>
+    </row>
+    <row r="490" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I490" s="3"/>
+    </row>
+    <row r="491" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I491" s="3"/>
+    </row>
+    <row r="492" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I492" s="3"/>
+    </row>
+    <row r="493" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I493" s="3"/>
+    </row>
+    <row r="494" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I494" s="3"/>
+    </row>
+    <row r="495" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I495" s="3"/>
+    </row>
+    <row r="496" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I496" s="3"/>
+    </row>
+    <row r="497" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I497" s="3"/>
+    </row>
+    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I498" s="3"/>
+    </row>
+  </sheetData>
   <conditionalFormatting sqref="H1 I2:I498 H499:H1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
@@ -2356,14 +5936,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I498" xr:uid="{8705CB75-3265-4505-B20A-B47F34467CE5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I498" xr:uid="{E111F4CD-F281-4AC9-90F8-B860D3C67368}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
+++ b/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC01_Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DE29FB-7F0D-4129-8AB3-3C210B593CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAD60A1-BF76-4366-9B71-145BAE79D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
   <si>
     <t>Title</t>
   </si>
@@ -275,6 +275,9 @@
 - Facebook: https://www.facebook.com/OrangeHRM/
 - Twitter: https://x.com/orangehrm?lang=en
 - Youtube: https://www.youtube.com/c/OrangeHRMInc</t>
+  </si>
+  <si>
+    <t>Username field should be case insensitive.</t>
   </si>
 </sst>
 </file>
@@ -341,33 +344,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="38">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -554,15 +546,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -601,51 +584,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}" name="Table7" displayName="Table7" ref="B2:I498" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B2:I498" xr:uid="{7257DFA7-01A6-4206-A23E-FB97593526F5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Title" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{8A48E4F0-6353-4B65-A8AA-A9F47744DFE9}" name="Test ID" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{C69B3631-9235-49D5-835A-460725D8F78E}" name="Title" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="B2:I498" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A30CC88D-34C6-4549-9F95-256E87B9A556}" name="Test ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D2291B80-E052-4E74-8B2A-5348F0A9A3D3}" name="Title" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{FC5C0E58-90FA-4751-A365-F0E42870FF91}" name="Preconditions" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{50947D0F-3DB7-4C12-8D4C-04394E1E90D0}" name="Test Steps" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C23F293D-C3E7-4952-A142-93091D0BBA3E}" name="Expected Result" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{E4077C5A-BC87-41F6-8F95-FA84454DECA1}" name="Actual Result" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{04A9F52E-CEAC-42B0-9466-31539452F358}" name="Notes" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{57C8C03B-F3D8-466A-ABA1-EB9E303A0381}" name="Status" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{A30CC88D-34C6-4549-9F95-256E87B9A556}" name="Test ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{D2291B80-E052-4E74-8B2A-5348F0A9A3D3}" name="Title" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{FC5C0E58-90FA-4751-A365-F0E42870FF91}" name="Preconditions" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{50947D0F-3DB7-4C12-8D4C-04394E1E90D0}" name="Test Steps" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{C23F293D-C3E7-4952-A142-93091D0BBA3E}" name="Expected Result" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{E4077C5A-BC87-41F6-8F95-FA84454DECA1}" name="Actual Result" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{04A9F52E-CEAC-42B0-9466-31539452F358}" name="Notes" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{57C8C03B-F3D8-466A-ABA1-EB9E303A0381}" name="Status" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B2:I498" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6AD6E72-D619-4F7A-A1B4-F56CA301BF0F}" name="Test ID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{24DDBA72-E28E-474C-B5E1-AE041F298912}" name="Title" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A274BD55-FA63-4D64-A320-6DFA74009ED5}" name="Preconditions" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{D075414E-2C83-4F70-8A30-EC33A8A439EA}" name="Test Steps" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{1C6D04CC-10B8-42A6-BC86-F64F2E5B8658}" name="Expected Result" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{799D8859-E4C3-464E-84FE-5F0D5D814832}" name="Actual Result" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{BD31614B-51C2-43FA-806D-187A71AF37CD}" name="Notes" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{D97C39C9-9A52-4956-93D9-99A7906A6516}" name="Status" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{C6AD6E72-D619-4F7A-A1B4-F56CA301BF0F}" name="Test ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{24DDBA72-E28E-474C-B5E1-AE041F298912}" name="Title" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{A274BD55-FA63-4D64-A320-6DFA74009ED5}" name="Preconditions" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D075414E-2C83-4F70-8A30-EC33A8A439EA}" name="Test Steps" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{1C6D04CC-10B8-42A6-BC86-F64F2E5B8658}" name="Expected Result" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{799D8859-E4C3-464E-84FE-5F0D5D814832}" name="Actual Result" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{BD31614B-51C2-43FA-806D-187A71AF37CD}" name="Notes" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{D97C39C9-9A52-4956-93D9-99A7906A6516}" name="Status" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -914,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I498"/>
+  <dimension ref="B2:I498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +917,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -960,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
@@ -983,7 +966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>66</v>
       </c>
@@ -1006,7 +989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>65</v>
       </c>
@@ -1029,7 +1012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
@@ -1052,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
@@ -1075,7 +1058,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>62</v>
       </c>
@@ -1098,7 +1081,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
@@ -1121,7 +1104,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
@@ -1144,7 +1127,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>59</v>
       </c>
@@ -1167,8 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>57</v>
       </c>
@@ -1182,13 +1164,14 @@
         <v>37</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>58</v>
       </c>
@@ -1205,9 +1188,11 @@
         <v>41</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>72</v>
       </c>
@@ -1223,19 +1208,22 @@
       <c r="F14" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1245,7 +1233,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1255,7 +1243,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1265,7 +1253,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -2707,11 +2695,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H1 I2:I11 H499:H1048576 I14:I498">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="H1 I2:I11 I14:I498 H499:H1048576">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2730,7 +2718,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0E1303-6B42-4513-AE24-731061DAA27B}">
-  <dimension ref="A2:I498"/>
+  <dimension ref="B2:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -2750,7 +2738,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2776,7 +2764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>55</v>
       </c>
@@ -2791,7 +2779,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>56</v>
       </c>
@@ -2803,42 +2791,40 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
@@ -4288,20 +4274,20 @@
       <c r="I498" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H1 I2 H499:H1048576 I5:I498">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="H1 H499:H1048576">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I4">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",I3)))</formula>
+  <conditionalFormatting sqref="I2:I498">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",I3)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4318,7 +4304,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006AF6B-5FD9-438F-BBCE-C610C3551B37}">
-  <dimension ref="A2:I498"/>
+  <dimension ref="B2:I498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -4338,7 +4324,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -4364,7 +4350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>68</v>
       </c>
@@ -4385,7 +4371,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>69</v>
       </c>
@@ -4406,7 +4392,7 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
@@ -4427,7 +4413,7 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>71</v>
       </c>
@@ -4448,36 +4434,34 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
@@ -5928,10 +5912,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 I2:I498 H499:H1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
+++ b/Documents/1_TestCases/TC01_Login/TC01_Login_TestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Automation\OrangeHRM---Automation-Java-Playwright-JUnit-\Documents\1_TestCases\TC01_Login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAD60A1-BF76-4366-9B71-145BAE79D4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130DCF2B-EDA4-45D5-998E-CCF83DBF0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="329" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="329" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>Title</t>
   </si>
@@ -278,6 +278,15 @@
   </si>
   <si>
     <t>Username field should be case insensitive.</t>
+  </si>
+  <si>
+    <t>Outlines are visible.</t>
+  </si>
+  <si>
+    <t>The login is successful with only keyboard.</t>
+  </si>
+  <si>
+    <t>Login Page can be zoomed in/out for 75% without breaking the ui.</t>
   </si>
 </sst>
 </file>
@@ -352,15 +361,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -546,6 +546,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -592,43 +601,43 @@
     <tableColumn id="3" xr3:uid="{FE303652-83BF-4573-BA20-427DA11D17C1}" name="Preconditions" dataDxfId="33"/>
     <tableColumn id="4" xr3:uid="{A40F81CC-1AF0-48A1-A33A-883B55562B5E}" name="Test Steps" dataDxfId="32"/>
     <tableColumn id="5" xr3:uid="{8A0ED7D9-F5B9-4D05-BDCD-AA18270243C5}" name="Expected Result" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{95F71F64-2115-4AB0-9059-152D26C46054}" name="Actual Result" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{901AD4F1-00E9-4B40-B687-A2140805F52D}" name="Notes" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{324B268D-5B58-47CB-AE05-5CFCA1EC0FCA}" name="Status" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}" name="Table723" displayName="Table723" ref="B2:I498" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B2:I498" xr:uid="{82B24A36-2447-4983-855A-AAB06659A179}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A30CC88D-34C6-4549-9F95-256E87B9A556}" name="Test ID" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{D2291B80-E052-4E74-8B2A-5348F0A9A3D3}" name="Title" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{FC5C0E58-90FA-4751-A365-F0E42870FF91}" name="Preconditions" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{50947D0F-3DB7-4C12-8D4C-04394E1E90D0}" name="Test Steps" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{C23F293D-C3E7-4952-A142-93091D0BBA3E}" name="Expected Result" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{E4077C5A-BC87-41F6-8F95-FA84454DECA1}" name="Actual Result" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{04A9F52E-CEAC-42B0-9466-31539452F358}" name="Notes" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{57C8C03B-F3D8-466A-ABA1-EB9E303A0381}" name="Status" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{A30CC88D-34C6-4549-9F95-256E87B9A556}" name="Test ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{D2291B80-E052-4E74-8B2A-5348F0A9A3D3}" name="Title" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{FC5C0E58-90FA-4751-A365-F0E42870FF91}" name="Preconditions" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{50947D0F-3DB7-4C12-8D4C-04394E1E90D0}" name="Test Steps" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C23F293D-C3E7-4952-A142-93091D0BBA3E}" name="Expected Result" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{E4077C5A-BC87-41F6-8F95-FA84454DECA1}" name="Actual Result" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{04A9F52E-CEAC-42B0-9466-31539452F358}" name="Notes" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{57C8C03B-F3D8-466A-ABA1-EB9E303A0381}" name="Status" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}" name="Table72" displayName="Table72" ref="B2:I498" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="B2:I498" xr:uid="{F1664E53-4BFC-46B7-A6E6-AE28B3F96B21}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C6AD6E72-D619-4F7A-A1B4-F56CA301BF0F}" name="Test ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{24DDBA72-E28E-474C-B5E1-AE041F298912}" name="Title" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{A274BD55-FA63-4D64-A320-6DFA74009ED5}" name="Preconditions" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D075414E-2C83-4F70-8A30-EC33A8A439EA}" name="Test Steps" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{1C6D04CC-10B8-42A6-BC86-F64F2E5B8658}" name="Expected Result" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{799D8859-E4C3-464E-84FE-5F0D5D814832}" name="Actual Result" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{BD31614B-51C2-43FA-806D-187A71AF37CD}" name="Notes" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{D97C39C9-9A52-4956-93D9-99A7906A6516}" name="Status" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C6AD6E72-D619-4F7A-A1B4-F56CA301BF0F}" name="Test ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{24DDBA72-E28E-474C-B5E1-AE041F298912}" name="Title" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{A274BD55-FA63-4D64-A320-6DFA74009ED5}" name="Preconditions" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{D075414E-2C83-4F70-8A30-EC33A8A439EA}" name="Test Steps" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1C6D04CC-10B8-42A6-BC86-F64F2E5B8658}" name="Expected Result" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{799D8859-E4C3-464E-84FE-5F0D5D814832}" name="Actual Result" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{BD31614B-51C2-43FA-806D-187A71AF37CD}" name="Notes" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{D97C39C9-9A52-4956-93D9-99A7906A6516}" name="Status" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1179,9 @@
       <c r="H12" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
@@ -1191,6 +1203,9 @@
       <c r="H13" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -1211,7 +1226,9 @@
       <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I15" s="3"/>
@@ -2695,16 +2712,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H1 I2:I11 I14:I498 H499:H1048576">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Fail">
+  <conditionalFormatting sqref="H1 H499:H1048576 I2:I498">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I11 I14:I498" xr:uid="{8705CB75-3265-4505-B20A-B47F34467CE5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I498" xr:uid="{8705CB75-3265-4505-B20A-B47F34467CE5}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4275,18 +4292,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 H499:H1048576">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I498">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4306,7 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3006AF6B-5FD9-438F-BBCE-C610C3551B37}">
   <dimension ref="B2:I498"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4318,7 +4335,7 @@
     <col min="4" max="4" width="21.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="54.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="41.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="33" style="3" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
@@ -4366,10 +4383,15 @@
       <c r="F3" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -4387,10 +4409,15 @@
       <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -4429,10 +4456,15 @@
       <c r="F6" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I7" s="3"/>
@@ -5912,10 +5944,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1 I2:I498 H499:H1048576">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
